--- a/rmnd_lca/data/additional_inventories/lci-hydrogen.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-hydrogen.xlsx
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A849" workbookViewId="0">
+      <selection activeCell="B865" sqref="B865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14060,7 +14060,7 @@
         <v>314</v>
       </c>
       <c r="B864">
-        <v>4.2200000000000003E-6</v>
+        <v>4.2199999999999999E-9</v>
       </c>
       <c r="C864" t="s">
         <v>66</v>
